--- a/res/testcase/parking/carInfoManager.xlsx
+++ b/res/testcase/parking/carInfoManager.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20355" windowHeight="8370" tabRatio="1000" firstSheet="3" activeTab="5"/>
+    <workbookView windowWidth="21495" windowHeight="10350" tabRatio="1000" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -672,8 +672,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -692,21 +692,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -721,46 +753,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -775,7 +775,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -804,17 +804,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -850,6 +850,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -862,19 +916,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,13 +940,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,49 +988,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,25 +1000,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,6 +1072,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1128,35 +1143,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1177,10 +1177,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1189,133 +1189,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2328,7 +2328,7 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -3638,7 +3638,7 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>

--- a/res/testcase/parking/carInfoManager.xlsx
+++ b/res/testcase/parking/carInfoManager.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350" tabRatio="1000" firstSheet="3" activeTab="10"/>
+    <workbookView windowWidth="21495" windowHeight="10350" tabRatio="1000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -670,10 +670,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -689,88 +689,6 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -798,9 +716,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -821,7 +755,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -830,6 +815,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -850,43 +850,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,6 +863,90 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,90 +970,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1024,13 +988,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,6 +1072,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1083,15 +1107,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1111,6 +1126,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1126,17 +1150,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1151,24 +1169,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1177,10 +1177,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1189,133 +1189,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2328,8 +2328,8 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2581,8 +2581,8 @@
   <sheetPr/>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="B3:E3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/res/testcase/parking/carInfoManager.xlsx
+++ b/res/testcase/parking/carInfoManager.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350" tabRatio="1000" activeTab="1"/>
+    <workbookView windowWidth="21495" windowHeight="10950" tabRatio="1000" firstSheet="8" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -12,19 +12,24 @@
     <sheet name="002_filterVisitorCar" sheetId="13" r:id="rId3"/>
     <sheet name="003_editVisitorCar" sheetId="6" r:id="rId4"/>
     <sheet name="004_delVisitorCar" sheetId="3" r:id="rId5"/>
-    <sheet name="005_addBlacklistCar" sheetId="7" r:id="rId6"/>
-    <sheet name="006_editBlacklistCar" sheetId="8" r:id="rId7"/>
-    <sheet name="007_delBlacklistCar" sheetId="9" r:id="rId8"/>
-    <sheet name="008_addSpecialTypeCar" sheetId="10" r:id="rId9"/>
-    <sheet name="009_editSpecialTypeCar" sheetId="11" r:id="rId10"/>
-    <sheet name="010_delSpecialTypeCar" sheetId="12" r:id="rId11"/>
+    <sheet name="005_exportVisitorCar" sheetId="14" r:id="rId6"/>
+    <sheet name="006_addBlacklistCar" sheetId="7" r:id="rId7"/>
+    <sheet name="007_filterBlacklistCar" sheetId="15" r:id="rId8"/>
+    <sheet name="008_editBlacklistCar" sheetId="8" r:id="rId9"/>
+    <sheet name="009_delBlacklistCar" sheetId="9" r:id="rId10"/>
+    <sheet name="010_exportBlacklistCar" sheetId="16" r:id="rId11"/>
+    <sheet name="011_addSpecialTypeCar" sheetId="10" r:id="rId12"/>
+    <sheet name="012_updateInformation" sheetId="17" r:id="rId13"/>
+    <sheet name="013_editSpecialTypeCar" sheetId="11" r:id="rId14"/>
+    <sheet name="014_delSpecialTypeCar" sheetId="12" r:id="rId15"/>
+    <sheet name="015_exportCarInfo" sheetId="18" r:id="rId16"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231">
   <si>
     <t>动作</t>
   </si>
@@ -266,6 +271,9 @@
     <t>创建一个"粤Z"开头的随机车牌，参数为一个变量</t>
   </si>
   <si>
+    <t>检查列表的文本</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -518,6 +526,18 @@
     <t>4删除后截图</t>
   </si>
   <si>
+    <t>点击导出</t>
+  </si>
+  <si>
+    <t>CarInfoPage.导出</t>
+  </si>
+  <si>
+    <t>操作成功，请打开右上角下载中心界面进行下载</t>
+  </si>
+  <si>
+    <t>2导出截图</t>
+  </si>
+  <si>
     <t>CarInfoPage.黑名单</t>
   </si>
   <si>
@@ -527,7 +547,7 @@
     <t>UI自动化黑名单勿动</t>
   </si>
   <si>
-    <t>${005_addBlacklistCar}.车牌号</t>
+    <t>${006_addBlacklistCar}.车牌号</t>
   </si>
   <si>
     <t>UI黑名单</t>
@@ -554,6 +574,12 @@
     <t>黑名单车辆创建成功</t>
   </si>
   <si>
+    <t>选择停车</t>
+  </si>
+  <si>
+    <t>2保存后截图</t>
+  </si>
+  <si>
     <t>2黑名单查询界面</t>
   </si>
   <si>
@@ -572,6 +598,9 @@
     <t>删除黑名单车辆成功</t>
   </si>
   <si>
+    <t>2删除后截图</t>
+  </si>
+  <si>
     <t>CarInfoPage.特殊车辆类型</t>
   </si>
   <si>
@@ -644,6 +673,27 @@
     <t>2特殊车辆类型查询界面</t>
   </si>
   <si>
+    <t>CarInfoPage.同步详情</t>
+  </si>
+  <si>
+    <t>CarInfoPage.重新同步</t>
+  </si>
+  <si>
+    <t>CarInfoPage.同步详情列表</t>
+  </si>
+  <si>
+    <t>发送成功</t>
+  </si>
+  <si>
+    <t>3特殊车辆类型同步详情界面</t>
+  </si>
+  <si>
+    <t>点击关闭</t>
+  </si>
+  <si>
+    <t>CarInfoPage.关闭-提示</t>
+  </si>
+  <si>
     <t>UI特殊类型修改后</t>
   </si>
   <si>
@@ -663,6 +713,15 @@
   </si>
   <si>
     <t>4操作成功截图</t>
+  </si>
+  <si>
+    <t>CarInfoPage.车辆信息</t>
+  </si>
+  <si>
+    <t>1车辆信息界面</t>
+  </si>
+  <si>
+    <t>2操作成功截图</t>
   </si>
 </sst>
 </file>
@@ -670,10 +729,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -691,24 +750,52 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -723,7 +810,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -731,7 +818,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -746,37 +833,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -789,32 +872,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -827,9 +887,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -850,7 +909,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,19 +1017,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,127 +1059,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,7 +1077,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,26 +1131,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1111,17 +1176,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1135,17 +1194,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1177,10 +1236,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1189,133 +1248,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1702,10 +1761,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2046,6 +2105,11 @@
         <v>79</v>
       </c>
     </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2056,10 +2120,790 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="22.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="37.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.375" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
+      <c r="A13" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
+      <c r="A14" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C37:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C7">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C8 C9 C10 C11 C12 C13 C14 C3:C4">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C25">
+      <formula1>Actions!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:C36">
+      <formula1>Actions!$A$2:$A$30</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="22.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="37.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.375" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C33:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C3:C4">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:C21">
+      <formula1>Actions!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22:C32">
+      <formula1>Actions!$A$2:$A$30</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A7" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="28.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="41" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.375" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A13" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A14" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A15" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A17" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A18" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C19:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C14 C15 C16 C17 C18 C3:C4 C11:C13">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2073,24 +2917,24 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>16</v>
@@ -2099,211 +2943,464 @@
         <v>16</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="24" customHeight="1" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A13" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A14" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C7">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C8 C9 C10 C11 C12 C13 C14 C15 C3:C4">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="26" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="24" customHeight="1" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>153</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A14" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="29" customHeight="1" spans="1:5">
       <c r="A15" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2323,13 +3420,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2343,24 +3440,24 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>16</v>
@@ -2369,194 +3466,194 @@
         <v>16</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="24" customHeight="1" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="29" customHeight="1" spans="1:5">
       <c r="A14" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2576,13 +3673,204 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="26" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="24" customHeight="1" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="29" customHeight="1" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C7">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C8 C9 C10 C11 C3:C4">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2597,24 +3885,24 @@
   <sheetData>
     <row r="1" ht="15" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" ht="33" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>16</v>
@@ -2623,15 +3911,15 @@
         <v>16</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" ht="33" customHeight="1" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>78</v>
@@ -2640,257 +3928,257 @@
         <v>78</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" ht="33" customHeight="1" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" ht="33" customHeight="1" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A14" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E14" s="4"/>
     </row>
     <row r="15" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A15" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A16" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A17" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A18" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A19" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +4219,24 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>16</v>
@@ -2957,122 +4245,122 @@
         <v>16</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="24" customHeight="1" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>36</v>
@@ -3081,10 +4369,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3124,24 +4412,24 @@
   <sheetData>
     <row r="1" ht="15" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" ht="28" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>16</v>
@@ -3150,211 +4438,211 @@
         <v>16</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="24" customHeight="1" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" ht="28" customHeight="1" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" ht="28" customHeight="1" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" ht="28" customHeight="1" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" ht="28" customHeight="1" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" ht="28" customHeight="1" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" ht="28" customHeight="1" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" ht="28" customHeight="1" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" ht="28" customHeight="1" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" ht="28" customHeight="1" spans="1:5">
       <c r="A14" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" ht="29" customHeight="1" spans="1:5">
       <c r="A15" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3380,7 +4668,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3395,24 +4683,24 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>16</v>
@@ -3421,193 +4709,193 @@
         <v>16</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" ht="22" customHeight="1" spans="1:5">
       <c r="A14" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3636,10 +4924,208 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="22.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="37.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="44.125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C33:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C3:C4">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:C21">
+      <formula1>Actions!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22:C32">
+      <formula1>Actions!$A$2:$A$30</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3654,24 +5140,24 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>16</v>
@@ -3680,15 +5166,15 @@
         <v>16</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>78</v>
@@ -3698,229 +5184,229 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A14" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A15" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A16" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A17" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3940,13 +5426,217 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="28.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="41" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.375" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C12:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C2:C10">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3960,24 +5650,24 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>16</v>
@@ -3986,211 +5676,211 @@
         <v>16</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="24" customHeight="1" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A14" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="29" customHeight="1" spans="1:5">
       <c r="A15" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4208,586 +5898,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="22.25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="37.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="33.375" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
-      <c r="A1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A3" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A4" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A5" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A7" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A8" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A9" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A10" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A11" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
-      <c r="A13" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="22" customHeight="1" spans="1:5">
-      <c r="A14" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C37:C1048576">
-      <formula1>Actions!$A$2:$A$27</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C7">
-      <formula1>Actions!$A$2:$A$50</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C8 C9 C10 C11 C12 C13 C14 C3:C4">
-      <formula1>Actions!$A$2:$A$40</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C25">
-      <formula1>Actions!$A$2:$A$35</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:C36">
-      <formula1>Actions!$A$2:$A$30</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="28.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="41" style="4" customWidth="1"/>
-    <col min="5" max="5" width="33.375" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
-      <c r="A1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A3" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A4" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A5" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A7" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A8" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A9" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="10" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A10" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A11" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="12" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A13" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A14" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A15" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="16" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A16" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A17" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="18" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A18" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C19:C1048576">
-      <formula1>Actions!$A$2:$A$27</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
-      <formula1>Actions!$A$2:$A$50</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C14 C15 C16 C17 C18 C3:C4 C11:C13">
-      <formula1>Actions!$A$2:$A$40</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/res/testcase/parking/carInfoManager.xlsx
+++ b/res/testcase/parking/carInfoManager.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10950" tabRatio="1000" firstSheet="8" activeTab="15"/>
+    <workbookView windowWidth="21495" windowHeight="10350" tabRatio="1000" firstSheet="5" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232">
   <si>
     <t>动作</t>
   </si>
@@ -352,7 +352,7 @@
     <t>CarInfoPage.特殊车辆类型名称</t>
   </si>
   <si>
-    <t>UI自动化访客勿动</t>
+    <t>UI自动化访客专用</t>
   </si>
   <si>
     <t>9</t>
@@ -544,7 +544,7 @@
     <t>1黑名单车辆界面</t>
   </si>
   <si>
-    <t>UI自动化黑名单勿动</t>
+    <t>UI自动化黑名单专用</t>
   </si>
   <si>
     <t>${006_addBlacklistCar}.车牌号</t>
@@ -671,6 +671,9 @@
   </si>
   <si>
     <t>2特殊车辆类型查询界面</t>
+  </si>
+  <si>
+    <t>点击同步详情</t>
   </si>
   <si>
     <t>CarInfoPage.同步详情</t>
@@ -729,10 +732,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -751,9 +754,48 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -766,36 +808,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -810,7 +830,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -818,10 +838,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -833,33 +853,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -874,21 +891,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -909,139 +912,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1059,13 +930,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,13 +1014,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1131,6 +1134,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1142,6 +1184,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1161,70 +1223,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1236,10 +1239,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1248,133 +1251,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2581,7 +2584,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A7" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2902,8 +2905,8 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3023,7 +3026,7 @@
         <v>148</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3061,13 +3064,13 @@
         <v>108</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E10" s="4"/>
     </row>
@@ -3082,7 +3085,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E11" s="4"/>
     </row>
@@ -3097,10 +3100,10 @@
         <v>36</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3115,7 +3118,7 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3123,13 +3126,13 @@
         <v>124</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E14" s="4"/>
     </row>
@@ -3338,7 +3341,7 @@
         <v>201</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3353,7 +3356,7 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3385,7 +3388,7 @@
         <v>136</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="29" customHeight="1" spans="1:5">
@@ -3537,7 +3540,7 @@
         <v>98</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
@@ -3546,7 +3549,7 @@
         <v>148</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3606,7 +3609,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3638,7 +3641,7 @@
         <v>136</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="29" customHeight="1" spans="1:5">
@@ -3653,7 +3656,7 @@
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3678,8 +3681,8 @@
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3766,7 +3769,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E5" s="4"/>
     </row>
@@ -3782,7 +3785,7 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3844,7 +3847,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3870,7 +3873,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4668,7 +4671,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5125,7 +5128,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5432,7 +5435,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/res/testcase/parking/carInfoManager.xlsx
+++ b/res/testcase/parking/carInfoManager.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350" tabRatio="1000" firstSheet="5" activeTab="12"/>
+    <workbookView windowWidth="21495" windowHeight="10950" tabRatio="1000" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -544,7 +544,7 @@
     <t>1黑名单车辆界面</t>
   </si>
   <si>
-    <t>UI自动化黑名单专用</t>
+    <t>UI自动化黑名单固用</t>
   </si>
   <si>
     <t>${006_addBlacklistCar}.车牌号</t>
@@ -875,8 +875,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -889,9 +890,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -918,18 +918,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -942,13 +930,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,19 +966,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1002,7 +996,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1026,13 +1026,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1044,13 +1038,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1068,7 +1062,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,13 +1086,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1239,10 +1239,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1251,7 +1251,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1260,7 +1260,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1272,10 +1272,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1296,7 +1296,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1305,19 +1305,19 @@
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1326,40 +1326,40 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1368,13 +1368,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2126,7 +2126,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2583,8 +2583,8 @@
   <sheetPr/>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2905,8 +2905,8 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3159,7 +3159,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3429,7 +3429,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3682,7 +3682,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5128,7 +5128,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5435,7 +5435,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/res/testcase/parking/carInfoManager.xlsx
+++ b/res/testcase/parking/carInfoManager.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10950" tabRatio="1000" firstSheet="8" activeTab="11"/>
+    <workbookView windowWidth="21495" windowHeight="10950" tabRatio="1000" firstSheet="8" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -463,7 +463,7 @@
     <t>CarInfoPage.停车场列表</t>
   </si>
   <si>
-    <t>自动化测试停车场;on</t>
+    <t>$全局变量.停车场名称;on</t>
   </si>
   <si>
     <t>2访客筛选界面</t>
@@ -732,10 +732,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -755,6 +755,96 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -783,60 +873,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -853,45 +889,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -912,19 +912,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,73 +924,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1026,7 +948,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,13 +966,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,19 +984,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,13 +1086,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1134,26 +1134,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1173,6 +1164,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1184,6 +1184,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1207,30 +1231,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1239,10 +1239,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1251,133 +1251,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1485,7 +1485,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CBE9CE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2386,7 +2386,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2583,8 +2583,8 @@
   <sheetPr/>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3681,8 +3681,8 @@
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3872,8 +3872,8 @@
   <sheetPr/>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4208,7 +4208,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5127,8 +5127,8 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5435,7 +5435,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
